--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng4/NKBH_AnhTuanNB.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2023/Tháng4/NKBH_AnhTuanNB.xlsx
@@ -15,14 +15,14 @@
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$M$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Mắt camera minidome</t>
   </si>
   <si>
-    <t>Dây nguồn VNSH01</t>
-  </si>
-  <si>
-    <t>SL : 01</t>
-  </si>
-  <si>
     <t>Dây nguồn LE</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
   </si>
   <si>
     <t>Dây lỗi cos</t>
-  </si>
-  <si>
-    <t>Dây lỗi không nhận CB</t>
   </si>
   <si>
     <t>Cam bị mờ</t>
@@ -465,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -529,17 +520,65 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,73 +604,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,7 +656,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1045,10 +1027,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1070,67 +1052,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="34" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="34"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="34" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="34"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1140,16 +1122,16 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -1161,14 +1143,14 @@
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1203,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>25</v>
@@ -1211,18 +1193,18 @@
       <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="11" t="s">
         <v>1</v>
       </c>
@@ -1231,14 +1213,14 @@
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="23">
         <v>5018102</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="20">
@@ -1248,26 +1230,26 @@
       <c r="H9" s="22"/>
       <c r="I9" s="17"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="57" t="s">
-        <v>47</v>
+      <c r="K9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="37" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="23">
         <v>5018085</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="20">
@@ -1277,26 +1259,26 @@
       <c r="H10" s="22"/>
       <c r="I10" s="17"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="57" t="s">
-        <v>47</v>
+      <c r="K10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="37" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="23">
         <v>5017267</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="20">
@@ -1306,86 +1288,88 @@
       <c r="H11" s="22"/>
       <c r="I11" s="17"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="57" t="s">
-        <v>48</v>
+      <c r="K11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="22"/>
       <c r="I12" s="17"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="54"/>
+      <c r="K12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="39"/>
       <c r="M12" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="D13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="22"/>
       <c r="I13" s="17"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="20" t="s">
-        <v>45</v>
+      <c r="K13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="48" t="s">
+      <c r="D14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="20">
@@ -1395,26 +1379,28 @@
       <c r="H14" s="22"/>
       <c r="I14" s="17"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55" t="s">
-        <v>44</v>
+      <c r="K14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="A15" s="18">
+        <v>7</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="20">
@@ -1424,136 +1410,120 @@
       <c r="H15" s="22"/>
       <c r="I15" s="17"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55" t="s">
-        <v>44</v>
+      <c r="K15" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
-        <v>7</v>
-      </c>
-      <c r="B16" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>34</v>
+      <c r="D16" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="15">
         <v>1</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="53" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>8</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+    </row>
+    <row r="17" spans="1:13" s="10" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="24" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24" t="s">
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="25"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
@@ -1580,56 +1550,42 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="23" t="s">
+      <c r="G23" s="51"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23" t="s">
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
+      <c r="M23" s="51"/>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1637,46 +1593,44 @@
     <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
+  <mergeCells count="32">
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
